--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-11-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-11-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>NUC</t>
   </si>
@@ -41,85 +41,58 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Enviadas a Litigacion</t>
+    <t>Mediacion</t>
   </si>
   <si>
     <t>No Detenido</t>
   </si>
   <si>
-    <t>Unidad de Atención Temprana Penal Arteaga</t>
+    <t>Unidad de Investigación Coahuayana</t>
   </si>
   <si>
-    <t>LAZARO CARDENAS</t>
+    <t>COALCOMAN</t>
   </si>
   <si>
-    <t>Victor Luna Beltran</t>
+    <t>Rafael Jacinto Reyes</t>
   </si>
   <si>
-    <t>Unidad de Atención Temprana Penal Lázaro Cárdenas I</t>
+    <t>William  Guido  Jacinto</t>
   </si>
   <si>
-    <t>Aaron Sanchez Esquivel</t>
-  </si>
-  <si>
-    <t>Mediacion</t>
+    <t>Abierto/Reiniciado</t>
   </si>
   <si>
     <t>No Ejercicio de la accion penal</t>
   </si>
   <si>
-    <t>Enrique  García  Hurtado</t>
+    <t>Enviadas a Litigacion</t>
+  </si>
+  <si>
+    <t>Incompetencia</t>
   </si>
   <si>
     <t>Archivo Temporal</t>
   </si>
   <si>
-    <t>Ricardo Quiroz Rodriguez</t>
+    <t>Unidad de Investigación Coalcomán</t>
   </si>
   <si>
-    <t>Julieta Oliva Ontiveros Mendoza</t>
+    <t>Jhony Canales Maldonado</t>
   </si>
   <si>
-    <t>Abstencion de Investigar</t>
+    <t>CESAR ULISES  GARCIA CASTELLANOS</t>
   </si>
   <si>
-    <t>Daniel Bermudez Rivera</t>
+    <t>Unidad de Investigación Tepalcatepec</t>
   </si>
   <si>
-    <t>JESSICA PINEDA PAZ</t>
+    <t>Yazmín Celeste Godoy Rodriguez</t>
   </si>
   <si>
-    <t>Unidad de Investigación Lázaro Cárdenas</t>
+    <t>Fiscalía Especializada para la Atención de Delitos de Violencia Familiar y de Género</t>
   </si>
   <si>
-    <t>Omar Morales Mayo</t>
-  </si>
-  <si>
-    <t>Pedro Cisneros García</t>
-  </si>
-  <si>
-    <t>Abierto/Reiniciado</t>
-  </si>
-  <si>
-    <t>Noemmi Carapia Sánchez</t>
-  </si>
-  <si>
-    <t>Adriana Sixtos Calvillo</t>
-  </si>
-  <si>
-    <t>Maribel Sandoval Manríquez</t>
-  </si>
-  <si>
-    <t>PEDRO XOCHIPA RIOS</t>
-  </si>
-  <si>
-    <t>Mario de Jesus Cortes Hernandez</t>
-  </si>
-  <si>
-    <t>Detenido</t>
-  </si>
-  <si>
-    <t>Raúl Carbajal Alvarez</t>
+    <t>Alejandra Escamilla Garcia</t>
   </si>
 </sst>
 </file>
@@ -485,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -529,7 +502,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1006202337847</v>
+        <v>1008202341553</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -555,7 +528,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1006202337847</v>
+        <v>1008202342505</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -576,12 +549,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1006202337847</v>
+        <v>1008202341553</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -590,24 +563,24 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1006202337847</v>
+        <v>1008202341919</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -616,24 +589,24 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1006202337847</v>
+        <v>1008202341553</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -642,24 +615,24 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1006202337847</v>
+        <v>1008202342407</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -668,24 +641,24 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>1006202337847</v>
+        <v>1008202341675</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -694,24 +667,24 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>1006202337847</v>
+        <v>1008202342302</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -726,18 +699,18 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>1006202337847</v>
+        <v>1008202341675</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -746,24 +719,24 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>1006202337847</v>
+        <v>1008202342294</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -772,24 +745,24 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>1006202337847</v>
+        <v>1008202341675</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -798,24 +771,24 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>1006202337847</v>
+        <v>1008202343832</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -824,24 +797,24 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
       </c>
       <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>1006202337847</v>
+        <v>1008202342184</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -850,24 +823,24 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>1006202337847</v>
+        <v>1008202344226</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -876,24 +849,24 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>1006202337847</v>
+        <v>1008202342184</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -902,24 +875,24 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>1006202337847</v>
+        <v>1008202342302</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -928,24 +901,24 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>1006202337847</v>
+        <v>1008202342184</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -960,18 +933,18 @@
         <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>1006202337847</v>
+        <v>1008202342302</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -986,18 +959,18 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
         <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>1006202337847</v>
+        <v>1008202327709</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -1006,24 +979,24 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>1006202337847</v>
+        <v>1008202342679</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -1032,24 +1005,24 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
       </c>
       <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
         <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>1006202337847</v>
+        <v>1008202345336</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1058,24 +1031,24 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>1006202337847</v>
+        <v>1008202338730</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1090,18 +1063,18 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
         <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>1006202337847</v>
+        <v>1008202235443</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -1110,24 +1083,24 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>1006202337847</v>
+        <v>1008202336673</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -1142,18 +1115,18 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
         <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>1006202337847</v>
+        <v>1008202337701</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1168,18 +1141,18 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>1006202337847</v>
+        <v>1008202328559</v>
       </c>
       <c r="B27">
         <v>2023</v>
@@ -1188,24 +1161,24 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
         <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>1006202337847</v>
+        <v>1008202232533</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1214,24 +1187,24 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>1006202337847</v>
+        <v>1008202316703</v>
       </c>
       <c r="B29">
         <v>2023</v>
@@ -1240,24 +1213,24 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>1006202337847</v>
+        <v>1008202316660</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -1266,24 +1239,24 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>1006202337847</v>
+        <v>1008202333905</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -1298,18 +1271,18 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>1006202337847</v>
+        <v>1008202305940</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -1324,18 +1297,18 @@
         <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>1006202337847</v>
+        <v>1008202240658</v>
       </c>
       <c r="B33">
         <v>2023</v>
@@ -1350,18 +1323,18 @@
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>1006202337847</v>
+        <v>1008202308474</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1370,24 +1343,24 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
-        <v>1006202337847</v>
+        <v>1008202341521</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1396,24 +1369,24 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>1006202337847</v>
+        <v>1008202308180</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1422,24 +1395,24 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3">
-        <v>1006202337847</v>
+        <v>1008202308180</v>
       </c>
       <c r="B37">
         <v>2023</v>
@@ -1448,24 +1421,24 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3">
-        <v>1006202337847</v>
+        <v>1008202238010</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1474,24 +1447,24 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>1006202337847</v>
+        <v>1008202237497</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1500,13 +1473,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -1517,7 +1490,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>1006202337847</v>
+        <v>1008202341377</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1526,24 +1499,24 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3">
-        <v>1006202337847</v>
+        <v>1008202345645</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -1552,24 +1525,24 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>1006202337847</v>
+        <v>1008202339600</v>
       </c>
       <c r="B42">
         <v>2023</v>
@@ -1578,24 +1551,24 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3">
-        <v>1006202337847</v>
+        <v>1008202340921</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -1604,24 +1577,24 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>1006202337847</v>
+        <v>1008202341377</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -1630,24 +1603,24 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>1006202337847</v>
+        <v>1008202341377</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1662,18 +1635,18 @@
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>1006202337847</v>
+        <v>1001201744456</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -1682,24 +1655,24 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>1006202337847</v>
+        <v>1008201936036</v>
       </c>
       <c r="B47">
         <v>2023</v>
@@ -1708,24 +1681,24 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>1006202337847</v>
+        <v>1008201921843</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -1734,24 +1707,24 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3">
-        <v>1006202337847</v>
+        <v>1008201940248</v>
       </c>
       <c r="B49">
         <v>2023</v>
@@ -1760,24 +1733,24 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
       </c>
       <c r="H49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3">
-        <v>1006202337847</v>
+        <v>1008201939473</v>
       </c>
       <c r="B50">
         <v>2023</v>
@@ -1786,24 +1759,24 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3">
-        <v>1006202337847</v>
+        <v>1001201735292</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -1812,24 +1785,24 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
       </c>
       <c r="H51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3">
-        <v>1006202337847</v>
+        <v>1008202003492</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -1838,24 +1811,24 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3">
-        <v>1006202337847</v>
+        <v>1008201928435</v>
       </c>
       <c r="B53">
         <v>2023</v>
@@ -1864,24 +1837,24 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3">
-        <v>1006202337847</v>
+        <v>1008201928435</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -1890,24 +1863,24 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3">
-        <v>1006202337847</v>
+        <v>1008202003492</v>
       </c>
       <c r="B55">
         <v>2023</v>
@@ -1916,24 +1889,24 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3">
-        <v>1006202337847</v>
+        <v>1001201735292</v>
       </c>
       <c r="B56">
         <v>2023</v>
@@ -1948,18 +1921,18 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3">
-        <v>1006202337847</v>
+        <v>1008201939473</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -1974,18 +1947,18 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
       </c>
       <c r="H57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>1006202337847</v>
+        <v>1008201940248</v>
       </c>
       <c r="B58">
         <v>2023</v>
@@ -2000,18 +1973,18 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
       </c>
       <c r="H58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>1006202337847</v>
+        <v>1008201921843</v>
       </c>
       <c r="B59">
         <v>2023</v>
@@ -2026,18 +1999,18 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
       </c>
       <c r="H59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>1006202337847</v>
+        <v>1008201936036</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -2052,18 +2025,18 @@
         <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>1006202337847</v>
+        <v>1008202343776</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -2072,24 +2045,24 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>1006202337847</v>
+        <v>1008202336542</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -2098,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
@@ -2115,7 +2088,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3">
-        <v>1006202337847</v>
+        <v>1008202336542</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -2124,13 +2097,13 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
@@ -2141,7 +2114,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3">
-        <v>1006202337847</v>
+        <v>1008202248485</v>
       </c>
       <c r="B64">
         <v>2023</v>
@@ -2156,7 +2129,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -2167,7 +2140,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3">
-        <v>1006202337847</v>
+        <v>1008202324500</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -2182,7 +2155,7 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -2193,7 +2166,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3">
-        <v>1006202337847</v>
+        <v>1008202243640</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -2202,13 +2175,13 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
@@ -2219,7 +2192,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3">
-        <v>1006202337847</v>
+        <v>1008202243640</v>
       </c>
       <c r="B67">
         <v>2023</v>
@@ -2234,7 +2207,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -2245,7 +2218,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3">
-        <v>1006202337847</v>
+        <v>1008202333959</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -2260,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -2271,7 +2244,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3">
-        <v>1006202337847</v>
+        <v>1008202014783</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -2280,13 +2253,13 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -2297,7 +2270,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3">
-        <v>1006202337847</v>
+        <v>1008202014783</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -2306,24 +2279,24 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>1006202337847</v>
+        <v>1008202337127</v>
       </c>
       <c r="B71">
         <v>2023</v>
@@ -2332,24 +2305,24 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>1006202337847</v>
+        <v>1008202326729</v>
       </c>
       <c r="B72">
         <v>2023</v>
@@ -2358,24 +2331,24 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>1006202337847</v>
+        <v>1008202334194</v>
       </c>
       <c r="B73">
         <v>2023</v>
@@ -2384,24 +2357,24 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>1006202337847</v>
+        <v>1008202334194</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -2410,24 +2383,24 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3">
-        <v>1006202337847</v>
+        <v>1008202334194</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -2436,24 +2409,24 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3">
-        <v>1006202337847</v>
+        <v>1008202319568</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -2468,18 +2441,18 @@
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3">
-        <v>1006202337847</v>
+        <v>1008202109971</v>
       </c>
       <c r="B77">
         <v>2023</v>
@@ -2488,24 +2461,24 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3">
-        <v>1006202337847</v>
+        <v>1008202109971</v>
       </c>
       <c r="B78">
         <v>2023</v>
@@ -2514,24 +2487,24 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3">
-        <v>1006202337847</v>
+        <v>1008202318808</v>
       </c>
       <c r="B79">
         <v>2023</v>
@@ -2540,24 +2513,24 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3">
-        <v>1006202337847</v>
+        <v>1008202318808</v>
       </c>
       <c r="B80">
         <v>2023</v>
@@ -2566,24 +2539,24 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3">
-        <v>1006202337847</v>
+        <v>1008202318808</v>
       </c>
       <c r="B81">
         <v>2023</v>
@@ -2592,24 +2565,24 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3">
-        <v>1006202337847</v>
+        <v>1008202226724</v>
       </c>
       <c r="B82">
         <v>2023</v>
@@ -2618,24 +2591,24 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3">
-        <v>1006202337847</v>
+        <v>1008202226724</v>
       </c>
       <c r="B83">
         <v>2023</v>
@@ -2644,24 +2617,24 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3">
-        <v>1006202337847</v>
+        <v>1008202226724</v>
       </c>
       <c r="B84">
         <v>2023</v>
@@ -2670,24 +2643,24 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3">
-        <v>1006202337847</v>
+        <v>1008202226724</v>
       </c>
       <c r="B85">
         <v>2023</v>
@@ -2696,24 +2669,24 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3">
-        <v>1006202337847</v>
+        <v>1008202334481</v>
       </c>
       <c r="B86">
         <v>2023</v>
@@ -2722,24 +2695,24 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="3">
-        <v>1006202337847</v>
+        <v>1008202334481</v>
       </c>
       <c r="B87">
         <v>2023</v>
@@ -2748,24 +2721,24 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3">
-        <v>1006202337847</v>
+        <v>1008202239874</v>
       </c>
       <c r="B88">
         <v>2023</v>
@@ -2774,24 +2747,24 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3">
-        <v>1006202337847</v>
+        <v>1008202239874</v>
       </c>
       <c r="B89">
         <v>2023</v>
@@ -2806,18 +2779,18 @@
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3">
-        <v>1006202337847</v>
+        <v>1008202234721</v>
       </c>
       <c r="B90">
         <v>2023</v>
@@ -2826,24 +2799,24 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3">
-        <v>1006202337847</v>
+        <v>1008202234721</v>
       </c>
       <c r="B91">
         <v>2023</v>
@@ -2858,18 +2831,18 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3">
-        <v>1006202337847</v>
+        <v>1008202231257</v>
       </c>
       <c r="B92">
         <v>2023</v>
@@ -2878,24 +2851,24 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3">
-        <v>1006202337847</v>
+        <v>1008202231257</v>
       </c>
       <c r="B93">
         <v>2023</v>
@@ -2910,18 +2883,18 @@
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="3">
-        <v>1006202337847</v>
+        <v>1008202240771</v>
       </c>
       <c r="B94">
         <v>2023</v>
@@ -2930,24 +2903,24 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="3">
-        <v>1006202337847</v>
+        <v>1008202240771</v>
       </c>
       <c r="B95">
         <v>2023</v>
@@ -2962,18 +2935,18 @@
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3">
-        <v>1006202337847</v>
+        <v>1008202242840</v>
       </c>
       <c r="B96">
         <v>2023</v>
@@ -2982,24 +2955,24 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="3">
-        <v>1006202337847</v>
+        <v>1001201731104</v>
       </c>
       <c r="B97">
         <v>2023</v>
@@ -3008,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -3020,12 +2993,12 @@
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="3">
-        <v>1006202337847</v>
+        <v>1008202339374</v>
       </c>
       <c r="B98">
         <v>2023</v>
@@ -3034,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -3046,12 +3019,12 @@
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3">
-        <v>1006202337847</v>
+        <v>1008202344455</v>
       </c>
       <c r="B99">
         <v>2023</v>
@@ -3060,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -3072,12 +3045,12 @@
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="3">
-        <v>1006202337847</v>
+        <v>1001201826505</v>
       </c>
       <c r="B100">
         <v>2023</v>
@@ -3086,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -3098,12 +3071,12 @@
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="3">
-        <v>1006202337847</v>
+        <v>1001201826505</v>
       </c>
       <c r="B101">
         <v>2023</v>
@@ -3112,7 +3085,7 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -3124,12 +3097,12 @@
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="3">
-        <v>1006202337847</v>
+        <v>1008202340092</v>
       </c>
       <c r="B102">
         <v>2023</v>
@@ -3138,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -3150,12 +3123,12 @@
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="3">
-        <v>1006202337847</v>
+        <v>1008202342673</v>
       </c>
       <c r="B103">
         <v>2023</v>
@@ -3164,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -3176,12 +3149,12 @@
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="3">
-        <v>1006202337847</v>
+        <v>1001201724735</v>
       </c>
       <c r="B104">
         <v>2023</v>
@@ -3190,7 +3163,7 @@
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -3202,12 +3175,12 @@
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="3">
-        <v>1006202337847</v>
+        <v>1008202339874</v>
       </c>
       <c r="B105">
         <v>2023</v>
@@ -3216,7 +3189,7 @@
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -3228,12 +3201,12 @@
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="3">
-        <v>1006202337847</v>
+        <v>1008202344070</v>
       </c>
       <c r="B106">
         <v>2023</v>
@@ -3242,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -3254,12 +3227,12 @@
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="3">
-        <v>1006202337847</v>
+        <v>1008201929365</v>
       </c>
       <c r="B107">
         <v>2023</v>
@@ -3268,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -3280,12 +3253,12 @@
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="3">
-        <v>1006202337847</v>
+        <v>1001201710535</v>
       </c>
       <c r="B108">
         <v>2023</v>
@@ -3294,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -3306,12 +3279,12 @@
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="3">
-        <v>1006202337847</v>
+        <v>1001201710535</v>
       </c>
       <c r="B109">
         <v>2023</v>
@@ -3332,12 +3305,12 @@
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="3">
-        <v>1006202337847</v>
+        <v>1001201718201</v>
       </c>
       <c r="B110">
         <v>2023</v>
@@ -3358,12 +3331,12 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="3">
-        <v>1006202337847</v>
+        <v>1008201845420</v>
       </c>
       <c r="B111">
         <v>2023</v>
@@ -3372,7 +3345,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -3384,12 +3357,12 @@
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="3">
-        <v>1006202337847</v>
+        <v>1008201908311</v>
       </c>
       <c r="B112">
         <v>2023</v>
@@ -3398,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -3410,12 +3383,12 @@
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="3">
-        <v>1006202337847</v>
+        <v>1008201923276</v>
       </c>
       <c r="B113">
         <v>2023</v>
@@ -3424,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -3436,12 +3409,12 @@
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="3">
-        <v>1006202337847</v>
+        <v>1008201928022</v>
       </c>
       <c r="B114">
         <v>2023</v>
@@ -3450,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -3462,12 +3435,12 @@
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="3">
-        <v>1006202337847</v>
+        <v>1008201939443</v>
       </c>
       <c r="B115">
         <v>2023</v>
@@ -3476,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -3488,12 +3461,12 @@
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="3">
-        <v>1006202337847</v>
+        <v>1008201845554</v>
       </c>
       <c r="B116">
         <v>2023</v>
@@ -3502,7 +3475,7 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -3514,12 +3487,12 @@
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="3">
-        <v>1006202337847</v>
+        <v>1001201738442</v>
       </c>
       <c r="B117">
         <v>2023</v>
@@ -3528,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -3540,12 +3513,12 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="3">
-        <v>1006202337847</v>
+        <v>1008201845420</v>
       </c>
       <c r="B118">
         <v>2023</v>
@@ -3554,7 +3527,7 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -3566,12 +3539,12 @@
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3">
-        <v>1006202337847</v>
+        <v>1008201908311</v>
       </c>
       <c r="B119">
         <v>2023</v>
@@ -3580,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -3592,12 +3565,12 @@
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="3">
-        <v>1006202337847</v>
+        <v>1008201923276</v>
       </c>
       <c r="B120">
         <v>2023</v>
@@ -3606,7 +3579,7 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -3618,12 +3591,12 @@
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="3">
-        <v>1006202337847</v>
+        <v>1008201928022</v>
       </c>
       <c r="B121">
         <v>2023</v>
@@ -3632,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -3644,12 +3617,12 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="3">
-        <v>1006202337847</v>
+        <v>1008201939443</v>
       </c>
       <c r="B122">
         <v>2023</v>
@@ -3658,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -3670,12 +3643,12 @@
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="3">
-        <v>1006202337847</v>
+        <v>1008201845554</v>
       </c>
       <c r="B123">
         <v>2023</v>
@@ -3684,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -3696,12 +3669,12 @@
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="3">
-        <v>1006202337847</v>
+        <v>1001201738442</v>
       </c>
       <c r="B124">
         <v>2023</v>
@@ -3710,7 +3683,7 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -3722,1021 +3695,7 @@
         <v>11</v>
       </c>
       <c r="H124" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B125">
-        <v>2023</v>
-      </c>
-      <c r="C125">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>18</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B126">
-        <v>2023</v>
-      </c>
-      <c r="C126">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B127">
-        <v>2023</v>
-      </c>
-      <c r="C127">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B128">
-        <v>2023</v>
-      </c>
-      <c r="C128">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B129">
-        <v>2023</v>
-      </c>
-      <c r="C129">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B130">
-        <v>2023</v>
-      </c>
-      <c r="C130">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B131">
-        <v>2023</v>
-      </c>
-      <c r="C131">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B132">
-        <v>2023</v>
-      </c>
-      <c r="C132">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B133">
-        <v>2023</v>
-      </c>
-      <c r="C133">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B134">
-        <v>2023</v>
-      </c>
-      <c r="C134">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B135">
-        <v>2023</v>
-      </c>
-      <c r="C135">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B136">
-        <v>2023</v>
-      </c>
-      <c r="C136">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>9</v>
-      </c>
-      <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B137">
-        <v>2023</v>
-      </c>
-      <c r="C137">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>16</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B138">
-        <v>2023</v>
-      </c>
-      <c r="C138">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B139">
-        <v>2023</v>
-      </c>
-      <c r="C139">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>16</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B140">
-        <v>2023</v>
-      </c>
-      <c r="C140">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B141">
-        <v>2023</v>
-      </c>
-      <c r="C141">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>16</v>
-      </c>
-      <c r="E141" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B142">
-        <v>2023</v>
-      </c>
-      <c r="C142">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B143">
-        <v>2023</v>
-      </c>
-      <c r="C143">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B144">
-        <v>2023</v>
-      </c>
-      <c r="C144">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B145">
-        <v>2023</v>
-      </c>
-      <c r="C145">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B146">
-        <v>2023</v>
-      </c>
-      <c r="C146">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s">
-        <v>16</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B147">
-        <v>2023</v>
-      </c>
-      <c r="C147">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>16</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>11</v>
-      </c>
-      <c r="H147" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B148">
-        <v>2023</v>
-      </c>
-      <c r="C148">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B149">
-        <v>2023</v>
-      </c>
-      <c r="C149">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B150">
-        <v>2023</v>
-      </c>
-      <c r="C150">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B151">
-        <v>2023</v>
-      </c>
-      <c r="C151">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B152">
-        <v>2023</v>
-      </c>
-      <c r="C152">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
-        <v>9</v>
-      </c>
-      <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>11</v>
-      </c>
-      <c r="H152" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B153">
-        <v>2023</v>
-      </c>
-      <c r="C153">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="s">
-        <v>9</v>
-      </c>
-      <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B154">
-        <v>2023</v>
-      </c>
-      <c r="C154">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B155">
-        <v>2023</v>
-      </c>
-      <c r="C155">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s">
-        <v>27</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B156">
-        <v>2023</v>
-      </c>
-      <c r="C156">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" t="s">
-        <v>9</v>
-      </c>
-      <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s">
-        <v>11</v>
-      </c>
-      <c r="H156" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
-      </c>
-      <c r="C157">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
-        <v>33</v>
-      </c>
-      <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B158">
-        <v>2023</v>
-      </c>
-      <c r="C158">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s">
-        <v>18</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B159">
-        <v>2023</v>
-      </c>
-      <c r="C159">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B160">
-        <v>2023</v>
-      </c>
-      <c r="C160">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s">
-        <v>18</v>
-      </c>
-      <c r="E160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B161">
-        <v>2023</v>
-      </c>
-      <c r="C161">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s">
-        <v>18</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B162">
-        <v>2023</v>
-      </c>
-      <c r="C162">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s">
-        <v>18</v>
-      </c>
-      <c r="E162" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>11</v>
-      </c>
-      <c r="H162" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="3">
-        <v>1006202337847</v>
-      </c>
-      <c r="B163">
-        <v>2023</v>
-      </c>
-      <c r="C163">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s">
-        <v>18</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-11-2023.xlsx
+++ b/carpetas/downloadNucs/nucsCarpetasInvestigacion-0-11-2023.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>NUC</t>
   </si>
@@ -41,58 +41,73 @@
     <t>MP</t>
   </si>
   <si>
-    <t>Mediacion</t>
+    <t>Incompetencia</t>
   </si>
   <si>
     <t>No Detenido</t>
   </si>
   <si>
-    <t>Unidad de Investigación Coahuayana</t>
+    <t>Unidad de Investigación La Piedad</t>
   </si>
   <si>
-    <t>COALCOMAN</t>
+    <t>LA PIEDAD</t>
   </si>
   <si>
-    <t>Rafael Jacinto Reyes</t>
+    <t>Fernanda Paola González Rodriguez</t>
   </si>
   <si>
-    <t>William  Guido  Jacinto</t>
+    <t>Mediacion</t>
+  </si>
+  <si>
+    <t>Jorge Ricardo Ledezma Hernandez</t>
+  </si>
+  <si>
+    <t>Archivo Temporal</t>
+  </si>
+  <si>
+    <t>No Ejercicio de la accion penal</t>
   </si>
   <si>
     <t>Abierto/Reiniciado</t>
   </si>
   <si>
-    <t>No Ejercicio de la accion penal</t>
-  </si>
-  <si>
     <t>Enviadas a Litigacion</t>
   </si>
   <si>
-    <t>Incompetencia</t>
+    <t>Mayra Graciela Maldonado Baca</t>
   </si>
   <si>
-    <t>Archivo Temporal</t>
+    <t>Detenido</t>
   </si>
   <si>
-    <t>Unidad de Investigación Coalcomán</t>
+    <t>Isabel Heidi Coss García</t>
+  </si>
+  <si>
+    <t>Angeles Alvarado Ayala</t>
+  </si>
+  <si>
+    <t>Alicia  Garibay  Amezcua</t>
+  </si>
+  <si>
+    <t>Juan Carlos Vázquez Almonte</t>
+  </si>
+  <si>
+    <t>Unidad de Investigación Puruándiro</t>
+  </si>
+  <si>
+    <t>Perla Violeta Abraham Vega</t>
   </si>
   <si>
     <t>Jhony Canales Maldonado</t>
   </si>
   <si>
-    <t>CESAR ULISES  GARCIA CASTELLANOS</t>
+    <t>Noé Neftaly Solorio Parra</t>
   </si>
   <si>
-    <t>Unidad de Investigación Tepalcatepec</t>
+    <t>Unidad de Investigación Tanhuato</t>
   </si>
   <si>
-    <t>Yazmín Celeste Godoy Rodriguez</t>
-  </si>
-  <si>
-    <t>Fiscalía Especializada para la Atención de Delitos de Violencia Familiar y de Género</t>
-  </si>
-  <si>
-    <t>Alejandra Escamilla Garcia</t>
+    <t>Javier Andres Bucio García</t>
   </si>
 </sst>
 </file>
@@ -458,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D2" sqref="D2"/>
@@ -502,7 +517,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3">
-        <v>1008202341553</v>
+        <v>1007202332677</v>
       </c>
       <c r="B2">
         <v>2023</v>
@@ -528,7 +543,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>1008202342505</v>
+        <v>1007202342483</v>
       </c>
       <c r="B3">
         <v>2023</v>
@@ -537,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -549,12 +564,12 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>1008202341553</v>
+        <v>1007202342387</v>
       </c>
       <c r="B4">
         <v>2023</v>
@@ -563,24 +578,24 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>1008202341919</v>
+        <v>1007202343833</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -589,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -601,12 +616,12 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>1008202341553</v>
+        <v>1007202344686</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -615,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -627,12 +642,12 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>1008202342407</v>
+        <v>1007202338995</v>
       </c>
       <c r="B7">
         <v>2023</v>
@@ -641,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -653,12 +668,12 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>1008202341675</v>
+        <v>1007202338456</v>
       </c>
       <c r="B8">
         <v>2023</v>
@@ -667,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -679,12 +694,12 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>1008202342302</v>
+        <v>1007202327007</v>
       </c>
       <c r="B9">
         <v>2023</v>
@@ -693,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -705,12 +720,12 @@
         <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>1008202341675</v>
+        <v>1007202336409</v>
       </c>
       <c r="B10">
         <v>2023</v>
@@ -719,24 +734,24 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>1008202342294</v>
+        <v>1007202306939</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -757,12 +772,12 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>1008202341675</v>
+        <v>1007202327421</v>
       </c>
       <c r="B12">
         <v>2023</v>
@@ -783,12 +798,12 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>1008202343832</v>
+        <v>1007202311625</v>
       </c>
       <c r="B13">
         <v>2023</v>
@@ -809,12 +824,12 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>1008202342184</v>
+        <v>1007202334521</v>
       </c>
       <c r="B14">
         <v>2023</v>
@@ -823,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -835,12 +850,12 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>1008202344226</v>
+        <v>1007202342185</v>
       </c>
       <c r="B15">
         <v>2023</v>
@@ -861,12 +876,12 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>1008202342184</v>
+        <v>1007201939779</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -875,24 +890,24 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
         <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>1008202342302</v>
+        <v>1007201917596</v>
       </c>
       <c r="B17">
         <v>2023</v>
@@ -901,24 +916,24 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
         <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>1008202342184</v>
+        <v>1007201936181</v>
       </c>
       <c r="B18">
         <v>2023</v>
@@ -927,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -939,12 +954,12 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>1008202342302</v>
+        <v>1007201939916</v>
       </c>
       <c r="B19">
         <v>2023</v>
@@ -953,7 +968,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -965,12 +980,12 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>1008202327709</v>
+        <v>1007201913868</v>
       </c>
       <c r="B20">
         <v>2023</v>
@@ -979,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -991,12 +1006,12 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>1008202342679</v>
+        <v>1007201924245</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -1005,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -1017,12 +1032,12 @@
         <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>1008202345336</v>
+        <v>1007201940215</v>
       </c>
       <c r="B22">
         <v>2023</v>
@@ -1043,12 +1058,12 @@
         <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>1008202338730</v>
+        <v>1007201943984</v>
       </c>
       <c r="B23">
         <v>2023</v>
@@ -1057,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1069,12 +1084,12 @@
         <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>1008202235443</v>
+        <v>1007201920939</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -1083,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1095,12 +1110,12 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>1008202336673</v>
+        <v>1007201935434</v>
       </c>
       <c r="B25">
         <v>2023</v>
@@ -1109,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1121,12 +1136,12 @@
         <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>1008202337701</v>
+        <v>1007201936181</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1135,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1147,12 +1162,12 @@
         <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>1008202328559</v>
+        <v>1007201939916</v>
       </c>
       <c r="B27">
         <v>2023</v>
@@ -1173,12 +1188,12 @@
         <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>1008202232533</v>
+        <v>1007201913868</v>
       </c>
       <c r="B28">
         <v>2023</v>
@@ -1187,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1199,12 +1214,12 @@
         <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>1008202316703</v>
+        <v>1007201924245</v>
       </c>
       <c r="B29">
         <v>2023</v>
@@ -1213,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1225,12 +1240,12 @@
         <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>1008202316660</v>
+        <v>1007201940215</v>
       </c>
       <c r="B30">
         <v>2023</v>
@@ -1239,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1251,12 +1266,12 @@
         <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>1008202333905</v>
+        <v>1007201943984</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -1265,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1277,12 +1292,12 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>1008202305940</v>
+        <v>1007201920939</v>
       </c>
       <c r="B32">
         <v>2023</v>
@@ -1291,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1303,12 +1318,12 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>1008202240658</v>
+        <v>1007201935434</v>
       </c>
       <c r="B33">
         <v>2023</v>
@@ -1317,7 +1332,7 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1329,12 +1344,12 @@
         <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>1008202308474</v>
+        <v>1007202342466</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1343,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1355,12 +1370,12 @@
         <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
-        <v>1008202341521</v>
+        <v>1007202334715</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1381,12 +1396,12 @@
         <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>1008202308180</v>
+        <v>1007202336276</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1395,24 +1410,24 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
         <v>14</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3">
-        <v>1008202308180</v>
+        <v>1007201943340</v>
       </c>
       <c r="B37">
         <v>2023</v>
@@ -1421,7 +1436,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1433,12 +1448,12 @@
         <v>11</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3">
-        <v>1008202238010</v>
+        <v>1007201943340</v>
       </c>
       <c r="B38">
         <v>2023</v>
@@ -1447,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1459,12 +1474,12 @@
         <v>11</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>1008202237497</v>
+        <v>1007202300750</v>
       </c>
       <c r="B39">
         <v>2023</v>
@@ -1473,24 +1488,24 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>1008202341377</v>
+        <v>1007202339511</v>
       </c>
       <c r="B40">
         <v>2023</v>
@@ -1499,24 +1514,24 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
       </c>
       <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
         <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3">
-        <v>1008202345645</v>
+        <v>1007202342883</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -1525,24 +1540,24 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
         <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3">
-        <v>1008202339600</v>
+        <v>1007202303980</v>
       </c>
       <c r="B42">
         <v>2023</v>
@@ -1557,18 +1572,18 @@
         <v>9</v>
       </c>
       <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
         <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3">
-        <v>1008202340921</v>
+        <v>1007202331713</v>
       </c>
       <c r="B43">
         <v>2023</v>
@@ -1583,18 +1598,18 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
         <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3">
-        <v>1008202341377</v>
+        <v>1007202339306</v>
       </c>
       <c r="B44">
         <v>2023</v>
@@ -1603,24 +1618,24 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
         <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3">
-        <v>1008202341377</v>
+        <v>1007202341513</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1629,24 +1644,24 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
         <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3">
-        <v>1001201744456</v>
+        <v>1007202338994</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -1655,24 +1670,24 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
         <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3">
-        <v>1008201936036</v>
+        <v>1007202342818</v>
       </c>
       <c r="B47">
         <v>2023</v>
@@ -1681,24 +1696,24 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
         <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3">
-        <v>1008201921843</v>
+        <v>1007202342748</v>
       </c>
       <c r="B48">
         <v>2023</v>
@@ -1707,24 +1722,24 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
         <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3">
-        <v>1008201940248</v>
+        <v>1007202343462</v>
       </c>
       <c r="B49">
         <v>2023</v>
@@ -1733,24 +1748,24 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
       </c>
       <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
         <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3">
-        <v>1008201939473</v>
+        <v>1007202343264</v>
       </c>
       <c r="B50">
         <v>2023</v>
@@ -1759,24 +1774,24 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
         <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3">
-        <v>1001201735292</v>
+        <v>1007202343265</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -1785,24 +1800,24 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
       </c>
       <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
         <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3">
-        <v>1008202003492</v>
+        <v>1007202343640</v>
       </c>
       <c r="B52">
         <v>2023</v>
@@ -1811,24 +1826,24 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
       </c>
       <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
         <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3">
-        <v>1008201928435</v>
+        <v>1007202337646</v>
       </c>
       <c r="B53">
         <v>2023</v>
@@ -1837,24 +1852,24 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
         <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3">
-        <v>1008201928435</v>
+        <v>1007202312396</v>
       </c>
       <c r="B54">
         <v>2023</v>
@@ -1863,24 +1878,24 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
       </c>
       <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
         <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3">
-        <v>1008202003492</v>
+        <v>1007202312396</v>
       </c>
       <c r="B55">
         <v>2023</v>
@@ -1889,24 +1904,24 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
       </c>
       <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
         <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3">
-        <v>1001201735292</v>
+        <v>1007202339065</v>
       </c>
       <c r="B56">
         <v>2023</v>
@@ -1921,18 +1936,18 @@
         <v>9</v>
       </c>
       <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
         <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3">
-        <v>1008201939473</v>
+        <v>1007202326197</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -1947,18 +1962,18 @@
         <v>9</v>
       </c>
       <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
         <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>1008201940248</v>
+        <v>1007202338933</v>
       </c>
       <c r="B58">
         <v>2023</v>
@@ -1973,18 +1988,18 @@
         <v>9</v>
       </c>
       <c r="F58" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
         <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>1008201921843</v>
+        <v>1007202329272</v>
       </c>
       <c r="B59">
         <v>2023</v>
@@ -1999,18 +2014,18 @@
         <v>9</v>
       </c>
       <c r="F59" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
         <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>1008201936036</v>
+        <v>1007202310792</v>
       </c>
       <c r="B60">
         <v>2023</v>
@@ -2019,24 +2034,24 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
       </c>
       <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
         <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>1008202343776</v>
+        <v>1007202321093</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -2045,24 +2060,24 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>1008202336542</v>
+        <v>1007202329185</v>
       </c>
       <c r="B62">
         <v>2023</v>
@@ -2071,24 +2086,24 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G62" t="s">
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3">
-        <v>1008202336542</v>
+        <v>1007202326245</v>
       </c>
       <c r="B63">
         <v>2023</v>
@@ -2097,24 +2112,24 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3">
-        <v>1008202248485</v>
+        <v>1007202310792</v>
       </c>
       <c r="B64">
         <v>2023</v>
@@ -2129,18 +2144,18 @@
         <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3">
-        <v>1008202324500</v>
+        <v>1007202321093</v>
       </c>
       <c r="B65">
         <v>2023</v>
@@ -2155,18 +2170,18 @@
         <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3">
-        <v>1008202243640</v>
+        <v>1007202329185</v>
       </c>
       <c r="B66">
         <v>2023</v>
@@ -2175,24 +2190,24 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3">
-        <v>1008202243640</v>
+        <v>1007202326245</v>
       </c>
       <c r="B67">
         <v>2023</v>
@@ -2207,18 +2222,18 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3">
-        <v>1008202333959</v>
+        <v>1007202335638</v>
       </c>
       <c r="B68">
         <v>2023</v>
@@ -2227,24 +2242,24 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3">
-        <v>1008202014783</v>
+        <v>1007202338974</v>
       </c>
       <c r="B69">
         <v>2023</v>
@@ -2253,24 +2268,24 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3">
-        <v>1008202014783</v>
+        <v>1007202331561</v>
       </c>
       <c r="B70">
         <v>2023</v>
@@ -2279,24 +2294,24 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>1008202337127</v>
+        <v>1007202335478</v>
       </c>
       <c r="B71">
         <v>2023</v>
@@ -2305,24 +2320,24 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3">
-        <v>1008202326729</v>
+        <v>1007202338898</v>
       </c>
       <c r="B72">
         <v>2023</v>
@@ -2331,24 +2346,24 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3">
-        <v>1008202334194</v>
+        <v>1007202339545</v>
       </c>
       <c r="B73">
         <v>2023</v>
@@ -2357,24 +2372,24 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>1008202334194</v>
+        <v>1007202342818</v>
       </c>
       <c r="B74">
         <v>2023</v>
@@ -2383,24 +2398,24 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3">
-        <v>1008202334194</v>
+        <v>1007202341513</v>
       </c>
       <c r="B75">
         <v>2023</v>
@@ -2409,24 +2424,24 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3">
-        <v>1008202319568</v>
+        <v>1007202312547</v>
       </c>
       <c r="B76">
         <v>2023</v>
@@ -2435,24 +2450,24 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3">
-        <v>1008202109971</v>
+        <v>1007202338974</v>
       </c>
       <c r="B77">
         <v>2023</v>
@@ -2461,24 +2476,24 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3">
-        <v>1008202109971</v>
+        <v>1007202331561</v>
       </c>
       <c r="B78">
         <v>2023</v>
@@ -2487,24 +2502,24 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3">
-        <v>1008202318808</v>
+        <v>1007202335478</v>
       </c>
       <c r="B79">
         <v>2023</v>
@@ -2513,24 +2528,24 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3">
-        <v>1008202318808</v>
+        <v>1007202338898</v>
       </c>
       <c r="B80">
         <v>2023</v>
@@ -2539,24 +2554,24 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3">
-        <v>1008202318808</v>
+        <v>1007202339545</v>
       </c>
       <c r="B81">
         <v>2023</v>
@@ -2565,24 +2580,24 @@
         <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3">
-        <v>1008202226724</v>
+        <v>1007202342818</v>
       </c>
       <c r="B82">
         <v>2023</v>
@@ -2591,24 +2606,24 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3">
-        <v>1008202226724</v>
+        <v>1007202341513</v>
       </c>
       <c r="B83">
         <v>2023</v>
@@ -2617,24 +2632,24 @@
         <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3">
-        <v>1008202226724</v>
+        <v>1007202312547</v>
       </c>
       <c r="B84">
         <v>2023</v>
@@ -2643,24 +2658,24 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3">
-        <v>1008202226724</v>
+        <v>1007202341331</v>
       </c>
       <c r="B85">
         <v>2023</v>
@@ -2669,24 +2684,24 @@
         <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3">
-        <v>1008202334481</v>
+        <v>1007202344939</v>
       </c>
       <c r="B86">
         <v>2023</v>
@@ -2695,24 +2710,24 @@
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="3">
-        <v>1008202334481</v>
+        <v>1007202341710</v>
       </c>
       <c r="B87">
         <v>2023</v>
@@ -2721,24 +2736,24 @@
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3">
-        <v>1008202239874</v>
+        <v>1007202341596</v>
       </c>
       <c r="B88">
         <v>2023</v>
@@ -2747,24 +2762,24 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3">
-        <v>1008202239874</v>
+        <v>1007202341084</v>
       </c>
       <c r="B89">
         <v>2023</v>
@@ -2773,24 +2788,24 @@
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3">
-        <v>1008202234721</v>
+        <v>1007202341397</v>
       </c>
       <c r="B90">
         <v>2023</v>
@@ -2799,24 +2814,24 @@
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3">
-        <v>1008202234721</v>
+        <v>1007202341612</v>
       </c>
       <c r="B91">
         <v>2023</v>
@@ -2825,24 +2840,24 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3">
-        <v>1008202231257</v>
+        <v>1007202337635</v>
       </c>
       <c r="B92">
         <v>2023</v>
@@ -2851,24 +2866,24 @@
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3">
-        <v>1008202231257</v>
+        <v>1007202341117</v>
       </c>
       <c r="B93">
         <v>2023</v>
@@ -2877,24 +2892,24 @@
         <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="3">
-        <v>1008202240771</v>
+        <v>1007202336392</v>
       </c>
       <c r="B94">
         <v>2023</v>
@@ -2903,24 +2918,24 @@
         <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
       </c>
       <c r="H94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="3">
-        <v>1008202240771</v>
+        <v>1007202336925</v>
       </c>
       <c r="B95">
         <v>2023</v>
@@ -2929,24 +2944,24 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" t="s">
         <v>11</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="3">
-        <v>1008202242840</v>
+        <v>1007202321732</v>
       </c>
       <c r="B96">
         <v>2023</v>
@@ -2955,24 +2970,24 @@
         <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
       </c>
       <c r="H96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="3">
-        <v>1001201731104</v>
+        <v>1007202331845</v>
       </c>
       <c r="B97">
         <v>2023</v>
@@ -2981,24 +2996,24 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
       </c>
       <c r="H97" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="3">
-        <v>1008202339374</v>
+        <v>1007202344997</v>
       </c>
       <c r="B98">
         <v>2023</v>
@@ -3007,24 +3022,24 @@
         <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="3">
-        <v>1008202344455</v>
+        <v>1007202329930</v>
       </c>
       <c r="B99">
         <v>2023</v>
@@ -3033,24 +3048,24 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="3">
-        <v>1001201826505</v>
+        <v>1007202329930</v>
       </c>
       <c r="B100">
         <v>2023</v>
@@ -3059,24 +3074,24 @@
         <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="3">
-        <v>1001201826505</v>
+        <v>1007202315908</v>
       </c>
       <c r="B101">
         <v>2023</v>
@@ -3085,24 +3100,24 @@
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
       </c>
       <c r="H101" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="3">
-        <v>1008202340092</v>
+        <v>1007202239891</v>
       </c>
       <c r="B102">
         <v>2023</v>
@@ -3111,24 +3126,24 @@
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="3">
-        <v>1008202342673</v>
+        <v>1007202243847</v>
       </c>
       <c r="B103">
         <v>2023</v>
@@ -3137,24 +3152,24 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G103" t="s">
         <v>11</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="3">
-        <v>1001201724735</v>
+        <v>1007202314562</v>
       </c>
       <c r="B104">
         <v>2023</v>
@@ -3169,18 +3184,18 @@
         <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
       </c>
       <c r="H104" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="3">
-        <v>1008202339874</v>
+        <v>1007202332920</v>
       </c>
       <c r="B105">
         <v>2023</v>
@@ -3195,18 +3210,18 @@
         <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
       </c>
       <c r="H105" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="3">
-        <v>1008202344070</v>
+        <v>1007202330317</v>
       </c>
       <c r="B106">
         <v>2023</v>
@@ -3221,18 +3236,18 @@
         <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="3">
-        <v>1008201929365</v>
+        <v>1007202324072</v>
       </c>
       <c r="B107">
         <v>2023</v>
@@ -3241,24 +3256,24 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
       </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="3">
-        <v>1001201710535</v>
+        <v>1007202343092</v>
       </c>
       <c r="B108">
         <v>2023</v>
@@ -3267,24 +3282,24 @@
         <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="3">
-        <v>1001201710535</v>
+        <v>1007202340731</v>
       </c>
       <c r="B109">
         <v>2023</v>
@@ -3293,24 +3308,24 @@
         <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="3">
-        <v>1001201718201</v>
+        <v>1007202340700</v>
       </c>
       <c r="B110">
         <v>2023</v>
@@ -3319,24 +3334,24 @@
         <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="3">
-        <v>1008201845420</v>
+        <v>1007202330978</v>
       </c>
       <c r="B111">
         <v>2023</v>
@@ -3345,24 +3360,24 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
       </c>
       <c r="H111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="3">
-        <v>1008201908311</v>
+        <v>1007202328789</v>
       </c>
       <c r="B112">
         <v>2023</v>
@@ -3371,24 +3386,24 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
       </c>
       <c r="H112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="3">
-        <v>1008201923276</v>
+        <v>1007202326131</v>
       </c>
       <c r="B113">
         <v>2023</v>
@@ -3397,24 +3412,24 @@
         <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
       </c>
       <c r="H113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="3">
-        <v>1008201928022</v>
+        <v>1007202342708</v>
       </c>
       <c r="B114">
         <v>2023</v>
@@ -3423,24 +3438,24 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
       </c>
       <c r="H114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="3">
-        <v>1008201939443</v>
+        <v>1007202342702</v>
       </c>
       <c r="B115">
         <v>2023</v>
@@ -3449,24 +3464,24 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
       </c>
       <c r="H115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="3">
-        <v>1008201845554</v>
+        <v>1007202339552</v>
       </c>
       <c r="B116">
         <v>2023</v>
@@ -3475,24 +3490,24 @@
         <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
       </c>
       <c r="H116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="3">
-        <v>1001201738442</v>
+        <v>1007202336758</v>
       </c>
       <c r="B117">
         <v>2023</v>
@@ -3501,24 +3516,24 @@
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="3">
-        <v>1008201845420</v>
+        <v>1007202335870</v>
       </c>
       <c r="B118">
         <v>2023</v>
@@ -3527,24 +3542,24 @@
         <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G118" t="s">
         <v>11</v>
       </c>
       <c r="H118" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="3">
-        <v>1008201908311</v>
+        <v>1007202343429</v>
       </c>
       <c r="B119">
         <v>2023</v>
@@ -3553,24 +3568,24 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G119" t="s">
         <v>11</v>
       </c>
       <c r="H119" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="3">
-        <v>1008201923276</v>
+        <v>1007202344689</v>
       </c>
       <c r="B120">
         <v>2023</v>
@@ -3579,24 +3594,24 @@
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
       </c>
       <c r="H120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="3">
-        <v>1008201928022</v>
+        <v>1007202344791</v>
       </c>
       <c r="B121">
         <v>2023</v>
@@ -3605,24 +3620,24 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="3">
-        <v>1008201939443</v>
+        <v>1007202318448</v>
       </c>
       <c r="B122">
         <v>2023</v>
@@ -3637,18 +3652,18 @@
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
       <c r="H122" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="3">
-        <v>1008201845554</v>
+        <v>1007202318840</v>
       </c>
       <c r="B123">
         <v>2023</v>
@@ -3663,18 +3678,18 @@
         <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G123" t="s">
         <v>11</v>
       </c>
       <c r="H123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="3">
-        <v>1001201738442</v>
+        <v>1007202317559</v>
       </c>
       <c r="B124">
         <v>2023</v>
@@ -3689,13 +3704,5941 @@
         <v>9</v>
       </c>
       <c r="F124" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="3">
+        <v>1007202316299</v>
+      </c>
+      <c r="B125">
+        <v>2023</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="3">
+        <v>1007202314842</v>
+      </c>
+      <c r="B126">
+        <v>2023</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="3">
+        <v>1007202317327</v>
+      </c>
+      <c r="B127">
+        <v>2023</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="3">
+        <v>1007202328677</v>
+      </c>
+      <c r="B128">
+        <v>2023</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="3">
+        <v>1007202239189</v>
+      </c>
+      <c r="B129">
+        <v>2023</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="3">
+        <v>1007202317327</v>
+      </c>
+      <c r="B130">
+        <v>2023</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="3">
+        <v>1007202328677</v>
+      </c>
+      <c r="B131">
+        <v>2023</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="3">
+        <v>1007202239189</v>
+      </c>
+      <c r="B132">
+        <v>2023</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="3">
+        <v>1007202343092</v>
+      </c>
+      <c r="B133">
+        <v>2023</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="3">
+        <v>1007202336891</v>
+      </c>
+      <c r="B134">
+        <v>2023</v>
+      </c>
+      <c r="C134">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="3">
+        <v>1007202339231</v>
+      </c>
+      <c r="B135">
+        <v>2023</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="3">
+        <v>1007202335870</v>
+      </c>
+      <c r="B136">
+        <v>2023</v>
+      </c>
+      <c r="C136">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="3">
+        <v>1007202342702</v>
+      </c>
+      <c r="B137">
+        <v>2023</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="3">
+        <v>1007202343092</v>
+      </c>
+      <c r="B138">
+        <v>2023</v>
+      </c>
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="3">
+        <v>1007202336891</v>
+      </c>
+      <c r="B139">
+        <v>2023</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="3">
+        <v>1007202339231</v>
+      </c>
+      <c r="B140">
+        <v>2023</v>
+      </c>
+      <c r="C140">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="3">
+        <v>1007202335870</v>
+      </c>
+      <c r="B141">
+        <v>2023</v>
+      </c>
+      <c r="C141">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="3">
+        <v>1007202342702</v>
+      </c>
+      <c r="B142">
+        <v>2023</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="3">
+        <v>1007202339930</v>
+      </c>
+      <c r="B143">
+        <v>2023</v>
+      </c>
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="3">
+        <v>1007202340394</v>
+      </c>
+      <c r="B144">
+        <v>2023</v>
+      </c>
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="3">
+        <v>1007202340654</v>
+      </c>
+      <c r="B145">
+        <v>2023</v>
+      </c>
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="3">
+        <v>1007202339892</v>
+      </c>
+      <c r="B146">
+        <v>2023</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="3">
+        <v>1007202322117</v>
+      </c>
+      <c r="B147">
+        <v>2023</v>
+      </c>
+      <c r="C147">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="3">
+        <v>1007202341975</v>
+      </c>
+      <c r="B148">
+        <v>2023</v>
+      </c>
+      <c r="C148">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="3">
+        <v>1007202340703</v>
+      </c>
+      <c r="B149">
+        <v>2023</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="3">
+        <v>1007202339872</v>
+      </c>
+      <c r="B150">
+        <v>2023</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="3">
+        <v>1007202333947</v>
+      </c>
+      <c r="B151">
+        <v>2023</v>
+      </c>
+      <c r="C151">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="3">
+        <v>1007202333947</v>
+      </c>
+      <c r="B152">
+        <v>2023</v>
+      </c>
+      <c r="C152">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="3">
+        <v>1007202339957</v>
+      </c>
+      <c r="B153">
+        <v>2023</v>
+      </c>
+      <c r="C153">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="3">
+        <v>1007202340394</v>
+      </c>
+      <c r="B154">
+        <v>2023</v>
+      </c>
+      <c r="C154">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="3">
+        <v>1007202339892</v>
+      </c>
+      <c r="B155">
+        <v>2023</v>
+      </c>
+      <c r="C155">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="3">
+        <v>1007202340654</v>
+      </c>
+      <c r="B156">
+        <v>2023</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="3">
+        <v>1007202321834</v>
+      </c>
+      <c r="B157">
+        <v>2023</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="3">
+        <v>1007202339930</v>
+      </c>
+      <c r="B158">
+        <v>2023</v>
+      </c>
+      <c r="C158">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="3">
+        <v>1007202320907</v>
+      </c>
+      <c r="B159">
+        <v>2023</v>
+      </c>
+      <c r="C159">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="3">
+        <v>1007202340394</v>
+      </c>
+      <c r="B160">
+        <v>2023</v>
+      </c>
+      <c r="C160">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="3">
+        <v>1007202339892</v>
+      </c>
+      <c r="B161">
+        <v>2023</v>
+      </c>
+      <c r="C161">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="3">
+        <v>1007202340654</v>
+      </c>
+      <c r="B162">
+        <v>2023</v>
+      </c>
+      <c r="C162">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="3">
+        <v>1007202321834</v>
+      </c>
+      <c r="B163">
+        <v>2023</v>
+      </c>
+      <c r="C163">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="3">
+        <v>1007202339930</v>
+      </c>
+      <c r="B164">
+        <v>2023</v>
+      </c>
+      <c r="C164">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="3">
+        <v>1007202320907</v>
+      </c>
+      <c r="B165">
+        <v>2023</v>
+      </c>
+      <c r="C165">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="3">
+        <v>1007202313451</v>
+      </c>
+      <c r="B166">
+        <v>2023</v>
+      </c>
+      <c r="C166">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="3">
+        <v>1007202336080</v>
+      </c>
+      <c r="B167">
+        <v>2023</v>
+      </c>
+      <c r="C167">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="3">
+        <v>1007202321330</v>
+      </c>
+      <c r="B168">
+        <v>2023</v>
+      </c>
+      <c r="C168">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="3">
+        <v>1007202332689</v>
+      </c>
+      <c r="B169">
+        <v>2023</v>
+      </c>
+      <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="3">
+        <v>1007202340343</v>
+      </c>
+      <c r="B170">
+        <v>2023</v>
+      </c>
+      <c r="C170">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="3">
+        <v>1007202332676</v>
+      </c>
+      <c r="B171">
+        <v>2023</v>
+      </c>
+      <c r="C171">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="3">
+        <v>1007202332642</v>
+      </c>
+      <c r="B172">
+        <v>2023</v>
+      </c>
+      <c r="C172">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="3">
+        <v>1007202321094</v>
+      </c>
+      <c r="B173">
+        <v>2023</v>
+      </c>
+      <c r="C173">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="3">
+        <v>1007202321094</v>
+      </c>
+      <c r="B174">
+        <v>2023</v>
+      </c>
+      <c r="C174">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="3">
+        <v>1007202235642</v>
+      </c>
+      <c r="B175">
+        <v>2023</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="3">
+        <v>1007202331867</v>
+      </c>
+      <c r="B176">
+        <v>2023</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="3">
+        <v>1007202341737</v>
+      </c>
+      <c r="B177">
+        <v>2023</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" t="s">
         <v>24</v>
       </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" t="s">
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="3">
+        <v>1007202326150</v>
+      </c>
+      <c r="B178">
+        <v>2023</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="3">
+        <v>1007202345659</v>
+      </c>
+      <c r="B179">
+        <v>2023</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="3">
+        <v>1007202306333</v>
+      </c>
+      <c r="B180">
+        <v>2023</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="3">
+        <v>1007202318409</v>
+      </c>
+      <c r="B181">
+        <v>2023</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="3">
+        <v>1007202318409</v>
+      </c>
+      <c r="B182">
+        <v>2023</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="3">
+        <v>1007201912063</v>
+      </c>
+      <c r="B183">
+        <v>2023</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="3">
+        <v>1007201934725</v>
+      </c>
+      <c r="B184">
+        <v>2023</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="3">
+        <v>1007201647892</v>
+      </c>
+      <c r="B185">
+        <v>2023</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="3">
+        <v>1007201639778</v>
+      </c>
+      <c r="B186">
+        <v>2023</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="3">
+        <v>1007201911707</v>
+      </c>
+      <c r="B187">
+        <v>2023</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="3">
+        <v>1007201707628</v>
+      </c>
+      <c r="B188">
+        <v>2023</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="3">
+        <v>1007201625950</v>
+      </c>
+      <c r="B189">
+        <v>2023</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="3">
+        <v>1007202331523</v>
+      </c>
+      <c r="B190">
+        <v>2023</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="3">
+        <v>1007201711828</v>
+      </c>
+      <c r="B191">
+        <v>2023</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="3">
+        <v>1007201642503</v>
+      </c>
+      <c r="B192">
+        <v>2023</v>
+      </c>
+      <c r="C192">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="3">
+        <v>1007201935879</v>
+      </c>
+      <c r="B193">
+        <v>2023</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="3">
+        <v>1007201846926</v>
+      </c>
+      <c r="B194">
+        <v>2023</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="3">
+        <v>1007201943089</v>
+      </c>
+      <c r="B195">
+        <v>2023</v>
+      </c>
+      <c r="C195">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="3">
+        <v>1007201939208</v>
+      </c>
+      <c r="B196">
+        <v>2023</v>
+      </c>
+      <c r="C196">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="3">
+        <v>1007201919587</v>
+      </c>
+      <c r="B197">
+        <v>2023</v>
+      </c>
+      <c r="C197">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="3">
+        <v>1007201916253</v>
+      </c>
+      <c r="B198">
+        <v>2023</v>
+      </c>
+      <c r="C198">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="3">
+        <v>1007201934511</v>
+      </c>
+      <c r="B199">
+        <v>2023</v>
+      </c>
+      <c r="C199">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="3">
+        <v>1007202333527</v>
+      </c>
+      <c r="B200">
+        <v>2023</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="3">
+        <v>1007201930755</v>
+      </c>
+      <c r="B201">
+        <v>2023</v>
+      </c>
+      <c r="C201">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="3">
+        <v>1007202341397</v>
+      </c>
+      <c r="B202">
+        <v>2023</v>
+      </c>
+      <c r="C202">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="3">
+        <v>1007202332970</v>
+      </c>
+      <c r="B203">
+        <v>2023</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="3">
+        <v>1007202341612</v>
+      </c>
+      <c r="B204">
+        <v>2023</v>
+      </c>
+      <c r="C204">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="3">
+        <v>1007202341117</v>
+      </c>
+      <c r="B205">
+        <v>2023</v>
+      </c>
+      <c r="C205">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="3">
+        <v>1007202336925</v>
+      </c>
+      <c r="B206">
+        <v>2023</v>
+      </c>
+      <c r="C206">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="3">
+        <v>1007202336912</v>
+      </c>
+      <c r="B207">
+        <v>2023</v>
+      </c>
+      <c r="C207">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="3">
+        <v>1007202337635</v>
+      </c>
+      <c r="B208">
+        <v>2023</v>
+      </c>
+      <c r="C208">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="3">
+        <v>1007202337022</v>
+      </c>
+      <c r="B209">
+        <v>2023</v>
+      </c>
+      <c r="C209">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="3">
+        <v>1007201927791</v>
+      </c>
+      <c r="B210">
+        <v>2023</v>
+      </c>
+      <c r="C210">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="3">
+        <v>1007201930835</v>
+      </c>
+      <c r="B211">
+        <v>2023</v>
+      </c>
+      <c r="C211">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="3">
+        <v>1007201642503</v>
+      </c>
+      <c r="B212">
+        <v>2023</v>
+      </c>
+      <c r="C212">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="3">
+        <v>1007201935879</v>
+      </c>
+      <c r="B213">
+        <v>2023</v>
+      </c>
+      <c r="C213">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="3">
+        <v>1007201846926</v>
+      </c>
+      <c r="B214">
+        <v>2023</v>
+      </c>
+      <c r="C214">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="3">
+        <v>1007201943089</v>
+      </c>
+      <c r="B215">
+        <v>2023</v>
+      </c>
+      <c r="C215">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>16</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="3">
+        <v>1007201939208</v>
+      </c>
+      <c r="B216">
+        <v>2023</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="3">
+        <v>1007201919587</v>
+      </c>
+      <c r="B217">
+        <v>2023</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="3">
+        <v>1007201916253</v>
+      </c>
+      <c r="B218">
+        <v>2023</v>
+      </c>
+      <c r="C218">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>16</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="3">
+        <v>1007201934511</v>
+      </c>
+      <c r="B219">
+        <v>2023</v>
+      </c>
+      <c r="C219">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="3">
+        <v>1007202333527</v>
+      </c>
+      <c r="B220">
+        <v>2023</v>
+      </c>
+      <c r="C220">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="3">
+        <v>1007201930755</v>
+      </c>
+      <c r="B221">
+        <v>2023</v>
+      </c>
+      <c r="C221">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="3">
+        <v>1007202341397</v>
+      </c>
+      <c r="B222">
+        <v>2023</v>
+      </c>
+      <c r="C222">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="3">
+        <v>1007202332970</v>
+      </c>
+      <c r="B223">
+        <v>2023</v>
+      </c>
+      <c r="C223">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s">
+        <v>16</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="3">
+        <v>1007202341612</v>
+      </c>
+      <c r="B224">
+        <v>2023</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="3">
+        <v>1007202341117</v>
+      </c>
+      <c r="B225">
+        <v>2023</v>
+      </c>
+      <c r="C225">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s">
+        <v>16</v>
+      </c>
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="3">
+        <v>1007202336925</v>
+      </c>
+      <c r="B226">
+        <v>2023</v>
+      </c>
+      <c r="C226">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>16</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="3">
+        <v>1007202336912</v>
+      </c>
+      <c r="B227">
+        <v>2023</v>
+      </c>
+      <c r="C227">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="3">
+        <v>1007202337635</v>
+      </c>
+      <c r="B228">
+        <v>2023</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s">
+        <v>16</v>
+      </c>
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="3">
+        <v>1007202337022</v>
+      </c>
+      <c r="B229">
+        <v>2023</v>
+      </c>
+      <c r="C229">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="3">
+        <v>1007201927791</v>
+      </c>
+      <c r="B230">
+        <v>2023</v>
+      </c>
+      <c r="C230">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="3">
+        <v>1007201930835</v>
+      </c>
+      <c r="B231">
+        <v>2023</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="3">
+        <v>1007202342354</v>
+      </c>
+      <c r="B232">
+        <v>2023</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
         <v>25</v>
+      </c>
+      <c r="G232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="3">
+        <v>1007202342432</v>
+      </c>
+      <c r="B233">
+        <v>2023</v>
+      </c>
+      <c r="C233">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>25</v>
+      </c>
+      <c r="G233" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="3">
+        <v>1007202342760</v>
+      </c>
+      <c r="B234">
+        <v>2023</v>
+      </c>
+      <c r="C234">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" t="s">
+        <v>25</v>
+      </c>
+      <c r="G234" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="3">
+        <v>1007202343956</v>
+      </c>
+      <c r="B235">
+        <v>2023</v>
+      </c>
+      <c r="C235">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>25</v>
+      </c>
+      <c r="G235" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="3">
+        <v>1007202344172</v>
+      </c>
+      <c r="B236">
+        <v>2023</v>
+      </c>
+      <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>25</v>
+      </c>
+      <c r="G236" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="3">
+        <v>1007202338177</v>
+      </c>
+      <c r="B237">
+        <v>2023</v>
+      </c>
+      <c r="C237">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>18</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>25</v>
+      </c>
+      <c r="G237" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="3">
+        <v>1007202340369</v>
+      </c>
+      <c r="B238">
+        <v>2023</v>
+      </c>
+      <c r="C238">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s">
+        <v>18</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>25</v>
+      </c>
+      <c r="G238" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="3">
+        <v>1007202336655</v>
+      </c>
+      <c r="B239">
+        <v>2023</v>
+      </c>
+      <c r="C239">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s">
+        <v>18</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>25</v>
+      </c>
+      <c r="G239" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="3">
+        <v>1007202338224</v>
+      </c>
+      <c r="B240">
+        <v>2023</v>
+      </c>
+      <c r="C240">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" t="s">
+        <v>25</v>
+      </c>
+      <c r="G240" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="3">
+        <v>1007202340723</v>
+      </c>
+      <c r="B241">
+        <v>2023</v>
+      </c>
+      <c r="C241">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" t="s">
+        <v>25</v>
+      </c>
+      <c r="G241" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="3">
+        <v>1007202342521</v>
+      </c>
+      <c r="B242">
+        <v>2023</v>
+      </c>
+      <c r="C242">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="3">
+        <v>1007202343824</v>
+      </c>
+      <c r="B243">
+        <v>2023</v>
+      </c>
+      <c r="C243">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" t="s">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="3">
+        <v>1007202330922</v>
+      </c>
+      <c r="B244">
+        <v>2023</v>
+      </c>
+      <c r="C244">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" t="s">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="3">
+        <v>1007202241236</v>
+      </c>
+      <c r="B245">
+        <v>2023</v>
+      </c>
+      <c r="C245">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" t="s">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="3">
+        <v>1007202228909</v>
+      </c>
+      <c r="B246">
+        <v>2023</v>
+      </c>
+      <c r="C246">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="3">
+        <v>1007202222451</v>
+      </c>
+      <c r="B247">
+        <v>2023</v>
+      </c>
+      <c r="C247">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="3">
+        <v>1007202222991</v>
+      </c>
+      <c r="B248">
+        <v>2023</v>
+      </c>
+      <c r="C248">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" t="s">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="3">
+        <v>1007202340287</v>
+      </c>
+      <c r="B249">
+        <v>2023</v>
+      </c>
+      <c r="C249">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="3">
+        <v>1007202010971</v>
+      </c>
+      <c r="B250">
+        <v>2023</v>
+      </c>
+      <c r="C250">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s">
+        <v>16</v>
+      </c>
+      <c r="E250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" t="s">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="3">
+        <v>1007202010968</v>
+      </c>
+      <c r="B251">
+        <v>2023</v>
+      </c>
+      <c r="C251">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s">
+        <v>16</v>
+      </c>
+      <c r="E251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="3">
+        <v>1007201949303</v>
+      </c>
+      <c r="B252">
+        <v>2023</v>
+      </c>
+      <c r="C252">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>16</v>
+      </c>
+      <c r="E252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" t="s">
+        <v>25</v>
+      </c>
+      <c r="G252" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="3">
+        <v>1007202038347</v>
+      </c>
+      <c r="B253">
+        <v>2023</v>
+      </c>
+      <c r="C253">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s">
+        <v>16</v>
+      </c>
+      <c r="E253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" t="s">
+        <v>25</v>
+      </c>
+      <c r="G253" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="3">
+        <v>1007202011120</v>
+      </c>
+      <c r="B254">
+        <v>2023</v>
+      </c>
+      <c r="C254">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>25</v>
+      </c>
+      <c r="G254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="3">
+        <v>1007201703178</v>
+      </c>
+      <c r="B255">
+        <v>2023</v>
+      </c>
+      <c r="C255">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" t="s">
+        <v>25</v>
+      </c>
+      <c r="G255" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="3">
+        <v>1007201703247</v>
+      </c>
+      <c r="B256">
+        <v>2023</v>
+      </c>
+      <c r="C256">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>16</v>
+      </c>
+      <c r="E256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="3">
+        <v>1007201703409</v>
+      </c>
+      <c r="B257">
+        <v>2023</v>
+      </c>
+      <c r="C257">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>25</v>
+      </c>
+      <c r="G257" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="3">
+        <v>1007201643328</v>
+      </c>
+      <c r="B258">
+        <v>2023</v>
+      </c>
+      <c r="C258">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="3">
+        <v>1007202042330</v>
+      </c>
+      <c r="B259">
+        <v>2023</v>
+      </c>
+      <c r="C259">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" t="s">
+        <v>25</v>
+      </c>
+      <c r="G259" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="3">
+        <v>1007202014473</v>
+      </c>
+      <c r="B260">
+        <v>2023</v>
+      </c>
+      <c r="C260">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>25</v>
+      </c>
+      <c r="G260" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="3">
+        <v>1007201912779</v>
+      </c>
+      <c r="B261">
+        <v>2023</v>
+      </c>
+      <c r="C261">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" t="s">
+        <v>25</v>
+      </c>
+      <c r="G261" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="3">
+        <v>1007201904570</v>
+      </c>
+      <c r="B262">
+        <v>2023</v>
+      </c>
+      <c r="C262">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" t="s">
+        <v>25</v>
+      </c>
+      <c r="G262" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="3">
+        <v>1007201926610</v>
+      </c>
+      <c r="B263">
+        <v>2023</v>
+      </c>
+      <c r="C263">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>25</v>
+      </c>
+      <c r="G263" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="3">
+        <v>1007202004701</v>
+      </c>
+      <c r="B264">
+        <v>2023</v>
+      </c>
+      <c r="C264">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" t="s">
+        <v>25</v>
+      </c>
+      <c r="G264" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="3">
+        <v>1007202030915</v>
+      </c>
+      <c r="B265">
+        <v>2023</v>
+      </c>
+      <c r="C265">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
+        <v>25</v>
+      </c>
+      <c r="G265" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="3">
+        <v>1007201838796</v>
+      </c>
+      <c r="B266">
+        <v>2023</v>
+      </c>
+      <c r="C266">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" t="s">
+        <v>25</v>
+      </c>
+      <c r="G266" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="3">
+        <v>1007202041822</v>
+      </c>
+      <c r="B267">
+        <v>2023</v>
+      </c>
+      <c r="C267">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" t="s">
+        <v>25</v>
+      </c>
+      <c r="G267" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="3">
+        <v>1007201848574</v>
+      </c>
+      <c r="B268">
+        <v>2023</v>
+      </c>
+      <c r="C268">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
+        <v>25</v>
+      </c>
+      <c r="G268" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="3">
+        <v>1007201842356</v>
+      </c>
+      <c r="B269">
+        <v>2023</v>
+      </c>
+      <c r="C269">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
+        <v>25</v>
+      </c>
+      <c r="G269" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="3">
+        <v>1007202021678</v>
+      </c>
+      <c r="B270">
+        <v>2023</v>
+      </c>
+      <c r="C270">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
+        <v>25</v>
+      </c>
+      <c r="G270" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="3">
+        <v>1007202021241</v>
+      </c>
+      <c r="B271">
+        <v>2023</v>
+      </c>
+      <c r="C271">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>25</v>
+      </c>
+      <c r="G271" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="3">
+        <v>1007202030624</v>
+      </c>
+      <c r="B272">
+        <v>2023</v>
+      </c>
+      <c r="C272">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" t="s">
+        <v>25</v>
+      </c>
+      <c r="G272" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="3">
+        <v>1007201702904</v>
+      </c>
+      <c r="B273">
+        <v>2023</v>
+      </c>
+      <c r="C273">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>25</v>
+      </c>
+      <c r="G273" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="3">
+        <v>1007201908737</v>
+      </c>
+      <c r="B274">
+        <v>2023</v>
+      </c>
+      <c r="C274">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
+        <v>25</v>
+      </c>
+      <c r="G274" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="3">
+        <v>1007202006441</v>
+      </c>
+      <c r="B275">
+        <v>2023</v>
+      </c>
+      <c r="C275">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>25</v>
+      </c>
+      <c r="G275" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="3">
+        <v>1007201745912</v>
+      </c>
+      <c r="B276">
+        <v>2023</v>
+      </c>
+      <c r="C276">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" t="s">
+        <v>25</v>
+      </c>
+      <c r="G276" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="3">
+        <v>1007201803898</v>
+      </c>
+      <c r="B277">
+        <v>2023</v>
+      </c>
+      <c r="C277">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" t="s">
+        <v>25</v>
+      </c>
+      <c r="G277" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="3">
+        <v>1007201907433</v>
+      </c>
+      <c r="B278">
+        <v>2023</v>
+      </c>
+      <c r="C278">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" t="s">
+        <v>25</v>
+      </c>
+      <c r="G278" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="3">
+        <v>1007201707045</v>
+      </c>
+      <c r="B279">
+        <v>2023</v>
+      </c>
+      <c r="C279">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" t="s">
+        <v>25</v>
+      </c>
+      <c r="G279" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="3">
+        <v>1007202042330</v>
+      </c>
+      <c r="B280">
+        <v>2023</v>
+      </c>
+      <c r="C280">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s">
+        <v>16</v>
+      </c>
+      <c r="E280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" t="s">
+        <v>25</v>
+      </c>
+      <c r="G280" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="3">
+        <v>1007202014473</v>
+      </c>
+      <c r="B281">
+        <v>2023</v>
+      </c>
+      <c r="C281">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s">
+        <v>16</v>
+      </c>
+      <c r="E281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" t="s">
+        <v>25</v>
+      </c>
+      <c r="G281" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="3">
+        <v>1007201912779</v>
+      </c>
+      <c r="B282">
+        <v>2023</v>
+      </c>
+      <c r="C282">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" t="s">
+        <v>25</v>
+      </c>
+      <c r="G282" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="3">
+        <v>1007201904570</v>
+      </c>
+      <c r="B283">
+        <v>2023</v>
+      </c>
+      <c r="C283">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" t="s">
+        <v>25</v>
+      </c>
+      <c r="G283" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="3">
+        <v>1007201926610</v>
+      </c>
+      <c r="B284">
+        <v>2023</v>
+      </c>
+      <c r="C284">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
+        <v>25</v>
+      </c>
+      <c r="G284" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="3">
+        <v>1007202004701</v>
+      </c>
+      <c r="B285">
+        <v>2023</v>
+      </c>
+      <c r="C285">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s">
+        <v>16</v>
+      </c>
+      <c r="E285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="3">
+        <v>1007202030915</v>
+      </c>
+      <c r="B286">
+        <v>2023</v>
+      </c>
+      <c r="C286">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s">
+        <v>16</v>
+      </c>
+      <c r="E286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" t="s">
+        <v>25</v>
+      </c>
+      <c r="G286" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="3">
+        <v>1007201838796</v>
+      </c>
+      <c r="B287">
+        <v>2023</v>
+      </c>
+      <c r="C287">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s">
+        <v>16</v>
+      </c>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
+        <v>25</v>
+      </c>
+      <c r="G287" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="3">
+        <v>1007202041822</v>
+      </c>
+      <c r="B288">
+        <v>2023</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>16</v>
+      </c>
+      <c r="E288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" t="s">
+        <v>25</v>
+      </c>
+      <c r="G288" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="3">
+        <v>1007201848574</v>
+      </c>
+      <c r="B289">
+        <v>2023</v>
+      </c>
+      <c r="C289">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" t="s">
+        <v>25</v>
+      </c>
+      <c r="G289" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="3">
+        <v>1007201842356</v>
+      </c>
+      <c r="B290">
+        <v>2023</v>
+      </c>
+      <c r="C290">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>25</v>
+      </c>
+      <c r="G290" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="3">
+        <v>1007202021678</v>
+      </c>
+      <c r="B291">
+        <v>2023</v>
+      </c>
+      <c r="C291">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>16</v>
+      </c>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
+        <v>25</v>
+      </c>
+      <c r="G291" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="3">
+        <v>1007202021241</v>
+      </c>
+      <c r="B292">
+        <v>2023</v>
+      </c>
+      <c r="C292">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s">
+        <v>16</v>
+      </c>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>25</v>
+      </c>
+      <c r="G292" t="s">
+        <v>11</v>
+      </c>
+      <c r="H292" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="3">
+        <v>1007202030624</v>
+      </c>
+      <c r="B293">
+        <v>2023</v>
+      </c>
+      <c r="C293">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s">
+        <v>16</v>
+      </c>
+      <c r="E293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
+        <v>25</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="3">
+        <v>1007201702904</v>
+      </c>
+      <c r="B294">
+        <v>2023</v>
+      </c>
+      <c r="C294">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s">
+        <v>16</v>
+      </c>
+      <c r="E294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>25</v>
+      </c>
+      <c r="G294" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="3">
+        <v>1007201908737</v>
+      </c>
+      <c r="B295">
+        <v>2023</v>
+      </c>
+      <c r="C295">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>16</v>
+      </c>
+      <c r="E295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>25</v>
+      </c>
+      <c r="G295" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="3">
+        <v>1007202006441</v>
+      </c>
+      <c r="B296">
+        <v>2023</v>
+      </c>
+      <c r="C296">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>25</v>
+      </c>
+      <c r="G296" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="3">
+        <v>1007201745912</v>
+      </c>
+      <c r="B297">
+        <v>2023</v>
+      </c>
+      <c r="C297">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s">
+        <v>16</v>
+      </c>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>25</v>
+      </c>
+      <c r="G297" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="3">
+        <v>1007201803898</v>
+      </c>
+      <c r="B298">
+        <v>2023</v>
+      </c>
+      <c r="C298">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s">
+        <v>16</v>
+      </c>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>25</v>
+      </c>
+      <c r="G298" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="3">
+        <v>1007201907433</v>
+      </c>
+      <c r="B299">
+        <v>2023</v>
+      </c>
+      <c r="C299">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s">
+        <v>16</v>
+      </c>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="3">
+        <v>1007201707045</v>
+      </c>
+      <c r="B300">
+        <v>2023</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s">
+        <v>16</v>
+      </c>
+      <c r="E300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="3">
+        <v>1007201816507</v>
+      </c>
+      <c r="B301">
+        <v>2023</v>
+      </c>
+      <c r="C301">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s">
+        <v>16</v>
+      </c>
+      <c r="E301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="3">
+        <v>1007201816346</v>
+      </c>
+      <c r="B302">
+        <v>2023</v>
+      </c>
+      <c r="C302">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s">
+        <v>16</v>
+      </c>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
+        <v>25</v>
+      </c>
+      <c r="G302" t="s">
+        <v>11</v>
+      </c>
+      <c r="H302" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="3">
+        <v>1007202017818</v>
+      </c>
+      <c r="B303">
+        <v>2023</v>
+      </c>
+      <c r="C303">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s">
+        <v>16</v>
+      </c>
+      <c r="E303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" t="s">
+        <v>25</v>
+      </c>
+      <c r="G303" t="s">
+        <v>11</v>
+      </c>
+      <c r="H303" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="3">
+        <v>1007202027049</v>
+      </c>
+      <c r="B304">
+        <v>2023</v>
+      </c>
+      <c r="C304">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s">
+        <v>17</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>25</v>
+      </c>
+      <c r="G304" t="s">
+        <v>11</v>
+      </c>
+      <c r="H304" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="3">
+        <v>1007201940128</v>
+      </c>
+      <c r="B305">
+        <v>2023</v>
+      </c>
+      <c r="C305">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" t="s">
+        <v>25</v>
+      </c>
+      <c r="G305" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="3">
+        <v>1007202027049</v>
+      </c>
+      <c r="B306">
+        <v>2023</v>
+      </c>
+      <c r="C306">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>25</v>
+      </c>
+      <c r="G306" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="3">
+        <v>1007201940128</v>
+      </c>
+      <c r="B307">
+        <v>2023</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>25</v>
+      </c>
+      <c r="G307" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="3">
+        <v>1007202322849</v>
+      </c>
+      <c r="B308">
+        <v>2023</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" t="s">
+        <v>11</v>
+      </c>
+      <c r="H308" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="3">
+        <v>1007202341775</v>
+      </c>
+      <c r="B309">
+        <v>2023</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" t="s">
+        <v>25</v>
+      </c>
+      <c r="G309" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="3">
+        <v>1007202340810</v>
+      </c>
+      <c r="B310">
+        <v>2023</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>15</v>
+      </c>
+      <c r="E310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" t="s">
+        <v>25</v>
+      </c>
+      <c r="G310" t="s">
+        <v>11</v>
+      </c>
+      <c r="H310" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="3">
+        <v>1007202331005</v>
+      </c>
+      <c r="B311">
+        <v>2023</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s">
+        <v>15</v>
+      </c>
+      <c r="E311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
+        <v>25</v>
+      </c>
+      <c r="G311" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="3">
+        <v>1007202322000</v>
+      </c>
+      <c r="B312">
+        <v>2023</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>25</v>
+      </c>
+      <c r="G312" t="s">
+        <v>11</v>
+      </c>
+      <c r="H312" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="3">
+        <v>1007202339565</v>
+      </c>
+      <c r="B313">
+        <v>2023</v>
+      </c>
+      <c r="C313">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
+        <v>25</v>
+      </c>
+      <c r="G313" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="3">
+        <v>1007202341430</v>
+      </c>
+      <c r="B314">
+        <v>2023</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" t="s">
+        <v>25</v>
+      </c>
+      <c r="G314" t="s">
+        <v>11</v>
+      </c>
+      <c r="H314" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="3">
+        <v>1007202345591</v>
+      </c>
+      <c r="B315">
+        <v>2023</v>
+      </c>
+      <c r="C315">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" t="s">
+        <v>25</v>
+      </c>
+      <c r="G315" t="s">
+        <v>11</v>
+      </c>
+      <c r="H315" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="3">
+        <v>1007202345652</v>
+      </c>
+      <c r="B316">
+        <v>2023</v>
+      </c>
+      <c r="C316">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
+        <v>25</v>
+      </c>
+      <c r="G316" t="s">
+        <v>11</v>
+      </c>
+      <c r="H316" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="3">
+        <v>1007202332661</v>
+      </c>
+      <c r="B317">
+        <v>2023</v>
+      </c>
+      <c r="C317">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s">
+        <v>15</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>25</v>
+      </c>
+      <c r="G317" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="3">
+        <v>1007202334209</v>
+      </c>
+      <c r="B318">
+        <v>2023</v>
+      </c>
+      <c r="C318">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s">
+        <v>15</v>
+      </c>
+      <c r="E318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
+        <v>25</v>
+      </c>
+      <c r="G318" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="3">
+        <v>1007202339945</v>
+      </c>
+      <c r="B319">
+        <v>2023</v>
+      </c>
+      <c r="C319">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s">
+        <v>15</v>
+      </c>
+      <c r="E319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
+        <v>25</v>
+      </c>
+      <c r="G319" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="3">
+        <v>1007202332121</v>
+      </c>
+      <c r="B320">
+        <v>2023</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" t="s">
+        <v>29</v>
+      </c>
+      <c r="G320" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="3">
+        <v>1007202331313</v>
+      </c>
+      <c r="B321">
+        <v>2023</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" t="s">
+        <v>29</v>
+      </c>
+      <c r="G321" t="s">
+        <v>11</v>
+      </c>
+      <c r="H321" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="3">
+        <v>1007202341482</v>
+      </c>
+      <c r="B322">
+        <v>2023</v>
+      </c>
+      <c r="C322">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s">
+        <v>18</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>29</v>
+      </c>
+      <c r="G322" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="3">
+        <v>1007202338115</v>
+      </c>
+      <c r="B323">
+        <v>2023</v>
+      </c>
+      <c r="C323">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" t="s">
+        <v>29</v>
+      </c>
+      <c r="G323" t="s">
+        <v>11</v>
+      </c>
+      <c r="H323" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="3">
+        <v>1007202321070</v>
+      </c>
+      <c r="B324">
+        <v>2023</v>
+      </c>
+      <c r="C324">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" t="s">
+        <v>29</v>
+      </c>
+      <c r="G324" t="s">
+        <v>11</v>
+      </c>
+      <c r="H324" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="3">
+        <v>1007202340948</v>
+      </c>
+      <c r="B325">
+        <v>2023</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" t="s">
+        <v>29</v>
+      </c>
+      <c r="G325" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="3">
+        <v>1007202200616</v>
+      </c>
+      <c r="B326">
+        <v>2023</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" t="s">
+        <v>29</v>
+      </c>
+      <c r="G326" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="3">
+        <v>1007202200616</v>
+      </c>
+      <c r="B327">
+        <v>2023</v>
+      </c>
+      <c r="C327">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" t="s">
+        <v>29</v>
+      </c>
+      <c r="G327" t="s">
+        <v>11</v>
+      </c>
+      <c r="H327" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="3">
+        <v>1007202344584</v>
+      </c>
+      <c r="B328">
+        <v>2023</v>
+      </c>
+      <c r="C328">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" t="s">
+        <v>29</v>
+      </c>
+      <c r="G328" t="s">
+        <v>11</v>
+      </c>
+      <c r="H328" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="3">
+        <v>1007202221289</v>
+      </c>
+      <c r="B329">
+        <v>2023</v>
+      </c>
+      <c r="C329">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s">
+        <v>15</v>
+      </c>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
+        <v>29</v>
+      </c>
+      <c r="G329" t="s">
+        <v>11</v>
+      </c>
+      <c r="H329" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="3">
+        <v>1007202344357</v>
+      </c>
+      <c r="B330">
+        <v>2023</v>
+      </c>
+      <c r="C330">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>29</v>
+      </c>
+      <c r="G330" t="s">
+        <v>11</v>
+      </c>
+      <c r="H330" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="3">
+        <v>1007202340262</v>
+      </c>
+      <c r="B331">
+        <v>2023</v>
+      </c>
+      <c r="C331">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" t="s">
+        <v>29</v>
+      </c>
+      <c r="G331" t="s">
+        <v>11</v>
+      </c>
+      <c r="H331" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="3">
+        <v>1007202327058</v>
+      </c>
+      <c r="B332">
+        <v>2023</v>
+      </c>
+      <c r="C332">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s">
+        <v>15</v>
+      </c>
+      <c r="E332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" t="s">
+        <v>29</v>
+      </c>
+      <c r="G332" t="s">
+        <v>11</v>
+      </c>
+      <c r="H332" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="3">
+        <v>1007202326252</v>
+      </c>
+      <c r="B333">
+        <v>2023</v>
+      </c>
+      <c r="C333">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s">
+        <v>17</v>
+      </c>
+      <c r="E333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" t="s">
+        <v>11</v>
+      </c>
+      <c r="H333" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="3">
+        <v>1007202333387</v>
+      </c>
+      <c r="B334">
+        <v>2023</v>
+      </c>
+      <c r="C334">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s">
+        <v>17</v>
+      </c>
+      <c r="E334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" t="s">
+        <v>29</v>
+      </c>
+      <c r="G334" t="s">
+        <v>11</v>
+      </c>
+      <c r="H334" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="3">
+        <v>1007202337990</v>
+      </c>
+      <c r="B335">
+        <v>2023</v>
+      </c>
+      <c r="C335">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s">
+        <v>17</v>
+      </c>
+      <c r="E335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" t="s">
+        <v>29</v>
+      </c>
+      <c r="G335" t="s">
+        <v>11</v>
+      </c>
+      <c r="H335" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="3">
+        <v>1007202340453</v>
+      </c>
+      <c r="B336">
+        <v>2023</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s">
+        <v>17</v>
+      </c>
+      <c r="E336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F336" t="s">
+        <v>29</v>
+      </c>
+      <c r="G336" t="s">
+        <v>11</v>
+      </c>
+      <c r="H336" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="3">
+        <v>1007202326252</v>
+      </c>
+      <c r="B337">
+        <v>2023</v>
+      </c>
+      <c r="C337">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s">
+        <v>15</v>
+      </c>
+      <c r="E337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" t="s">
+        <v>29</v>
+      </c>
+      <c r="G337" t="s">
+        <v>11</v>
+      </c>
+      <c r="H337" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="3">
+        <v>1007202333387</v>
+      </c>
+      <c r="B338">
+        <v>2023</v>
+      </c>
+      <c r="C338">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" t="s">
+        <v>29</v>
+      </c>
+      <c r="G338" t="s">
+        <v>11</v>
+      </c>
+      <c r="H338" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="3">
+        <v>1007202337990</v>
+      </c>
+      <c r="B339">
+        <v>2023</v>
+      </c>
+      <c r="C339">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F339" t="s">
+        <v>29</v>
+      </c>
+      <c r="G339" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="3">
+        <v>1007202340453</v>
+      </c>
+      <c r="B340">
+        <v>2023</v>
+      </c>
+      <c r="C340">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" t="s">
+        <v>29</v>
+      </c>
+      <c r="G340" t="s">
+        <v>11</v>
+      </c>
+      <c r="H340" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="3">
+        <v>1007202319641</v>
+      </c>
+      <c r="B341">
+        <v>2023</v>
+      </c>
+      <c r="C341">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s">
+        <v>16</v>
+      </c>
+      <c r="E341" t="s">
+        <v>9</v>
+      </c>
+      <c r="F341" t="s">
+        <v>29</v>
+      </c>
+      <c r="G341" t="s">
+        <v>11</v>
+      </c>
+      <c r="H341" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="3">
+        <v>1007202341978</v>
+      </c>
+      <c r="B342">
+        <v>2023</v>
+      </c>
+      <c r="C342">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>16</v>
+      </c>
+      <c r="E342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" t="s">
+        <v>29</v>
+      </c>
+      <c r="G342" t="s">
+        <v>11</v>
+      </c>
+      <c r="H342" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="3">
+        <v>1007202340041</v>
+      </c>
+      <c r="B343">
+        <v>2023</v>
+      </c>
+      <c r="C343">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F343" t="s">
+        <v>29</v>
+      </c>
+      <c r="G343" t="s">
+        <v>11</v>
+      </c>
+      <c r="H343" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="3">
+        <v>1007202335272</v>
+      </c>
+      <c r="B344">
+        <v>2023</v>
+      </c>
+      <c r="C344">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" t="s">
+        <v>29</v>
+      </c>
+      <c r="G344" t="s">
+        <v>11</v>
+      </c>
+      <c r="H344" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="3">
+        <v>1007202332612</v>
+      </c>
+      <c r="B345">
+        <v>2023</v>
+      </c>
+      <c r="C345">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+      <c r="E345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
+        <v>29</v>
+      </c>
+      <c r="G345" t="s">
+        <v>11</v>
+      </c>
+      <c r="H345" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="3">
+        <v>1007202342501</v>
+      </c>
+      <c r="B346">
+        <v>2023</v>
+      </c>
+      <c r="C346">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s">
+        <v>16</v>
+      </c>
+      <c r="E346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
+        <v>29</v>
+      </c>
+      <c r="G346" t="s">
+        <v>11</v>
+      </c>
+      <c r="H346" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="3">
+        <v>1007202341918</v>
+      </c>
+      <c r="B347">
+        <v>2023</v>
+      </c>
+      <c r="C347">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s">
+        <v>16</v>
+      </c>
+      <c r="E347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347" t="s">
+        <v>29</v>
+      </c>
+      <c r="G347" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="3">
+        <v>1007202338017</v>
+      </c>
+      <c r="B348">
+        <v>2023</v>
+      </c>
+      <c r="C348">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s">
+        <v>16</v>
+      </c>
+      <c r="E348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" t="s">
+        <v>29</v>
+      </c>
+      <c r="G348" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="3">
+        <v>1007202341442</v>
+      </c>
+      <c r="B349">
+        <v>2023</v>
+      </c>
+      <c r="C349">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349" t="s">
+        <v>29</v>
+      </c>
+      <c r="G349" t="s">
+        <v>11</v>
+      </c>
+      <c r="H349" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="3">
+        <v>1007202343900</v>
+      </c>
+      <c r="B350">
+        <v>2023</v>
+      </c>
+      <c r="C350">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s">
+        <v>16</v>
+      </c>
+      <c r="E350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350" t="s">
+        <v>29</v>
+      </c>
+      <c r="G350" t="s">
+        <v>11</v>
+      </c>
+      <c r="H350" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="3">
+        <v>1007202327075</v>
+      </c>
+      <c r="B351">
+        <v>2023</v>
+      </c>
+      <c r="C351">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s">
+        <v>17</v>
+      </c>
+      <c r="E351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351" t="s">
+        <v>29</v>
+      </c>
+      <c r="G351" t="s">
+        <v>11</v>
+      </c>
+      <c r="H351" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="3">
+        <v>1007202327075</v>
+      </c>
+      <c r="B352">
+        <v>2023</v>
+      </c>
+      <c r="C352">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s">
+        <v>16</v>
+      </c>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352" t="s">
+        <v>29</v>
+      </c>
+      <c r="G352" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
